--- a/Practica1_19/archivos/Salida.xlsx
+++ b/Practica1_19/archivos/Salida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\REPOSITORIOS\IA1_Practicas_19\Practica1_19\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5297BC-9AD6-4F76-B458-75F47DD4274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD4134A-AA32-435F-94FB-811720A31F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D389658-0667-479E-AF2C-1DBF6F2625E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4471A3E7-F773-4B7F-B115-EEB0AA71E4D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
   <si>
     <t>ISBN</t>
   </si>
@@ -53,6 +53,21 @@
     <t>Result</t>
   </si>
   <si>
+    <t>978-1234567890</t>
+  </si>
+  <si>
+    <t>50 Bilim İnsanıyla Psikolojinin Kısa Tarihi</t>
+  </si>
+  <si>
+    <t>Jeremy Stangroom</t>
+  </si>
+  <si>
+    <t>No registrado</t>
+  </si>
+  <si>
+    <t>Encontrado</t>
+  </si>
+  <si>
     <t>978-0061120084</t>
   </si>
   <si>
@@ -65,19 +80,46 @@
     <t>USD $16.99</t>
   </si>
   <si>
-    <t>Encontrado</t>
-  </si>
-  <si>
-    <t>978-1234567890</t>
-  </si>
-  <si>
-    <t>50 Bilim İnsanıyla Psikolojinin Kısa Tarihi</t>
-  </si>
-  <si>
-    <t>Jeremy Stangroom</t>
-  </si>
-  <si>
-    <t>No registrado</t>
+    <t>978-0987654321</t>
+  </si>
+  <si>
+    <t>One Man's Henry Moore</t>
+  </si>
+  <si>
+    <t>Finn, David</t>
+  </si>
+  <si>
+    <t>978-1503290563</t>
+  </si>
+  <si>
+    <t>Pride and Prejudice</t>
+  </si>
+  <si>
+    <t>Austen, Jane</t>
+  </si>
+  <si>
+    <t>978-0316769488</t>
+  </si>
+  <si>
+    <t>The Catcher in the Rye</t>
+  </si>
+  <si>
+    <t>J.D. Salinger</t>
+  </si>
+  <si>
+    <t>USD $5.92</t>
+  </si>
+  <si>
+    <t>978-0590353427</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Sorcerer's Stone</t>
+  </si>
+  <si>
+    <t>Rowling, J.K.</t>
+  </si>
+  <si>
+    <t>USD $8.98</t>
   </si>
   <si>
     <t>978-0451524935</t>
@@ -104,151 +146,58 @@
     <t>USD $17.00</t>
   </si>
   <si>
-    <t>978-0987654321</t>
-  </si>
-  <si>
-    <t>One Man's Henry Moore</t>
-  </si>
-  <si>
-    <t>Finn, David</t>
-  </si>
-  <si>
-    <t>978-1503290563</t>
-  </si>
-  <si>
-    <t>Pride and Prejudice</t>
-  </si>
-  <si>
-    <t>Austen, Jane</t>
-  </si>
-  <si>
-    <t>978-0316769488</t>
-  </si>
-  <si>
-    <t>The Catcher in the Rye</t>
-  </si>
-  <si>
-    <t>J.D. Salinger</t>
-  </si>
-  <si>
-    <t>USD $5.92</t>
-  </si>
-  <si>
-    <t>978-0590353427</t>
-  </si>
-  <si>
-    <t>Harry Potter and the Sorcerer's Stone</t>
-  </si>
-  <si>
-    <t>Rowling, J.K.</t>
-  </si>
-  <si>
-    <t>USD $8.98</t>
-  </si>
-  <si>
-    <t>978-0547928227</t>
-  </si>
-  <si>
-    <t>The Hobbit</t>
-  </si>
-  <si>
-    <t>J. R. R. Tolkien</t>
-  </si>
-  <si>
-    <t>USD $14.99</t>
-  </si>
-  <si>
-    <t>978-1503280786</t>
-  </si>
-  <si>
-    <t>Moby Dick</t>
-  </si>
-  <si>
-    <t>Melville, Herman</t>
-  </si>
-  <si>
-    <t>978-0544003415</t>
-  </si>
-  <si>
-    <t>The Lord Of The Rings</t>
-  </si>
-  <si>
-    <t>Tolkien, J.R.R.</t>
+    <t>978-1451626650</t>
+  </si>
+  <si>
+    <t>Catch-22: 50th Anniversary Edition</t>
+  </si>
+  <si>
+    <t>Heller, Joseph</t>
+  </si>
+  <si>
+    <t>USD $18.00</t>
+  </si>
+  <si>
+    <t>978-1122334455</t>
+  </si>
+  <si>
+    <t>Manuel du Musicien: livre de musique (Blackytho t. 1122334455) (French Edition)</t>
+  </si>
+  <si>
+    <t>Celima, Guitho</t>
+  </si>
+  <si>
+    <t>978-0143039433</t>
+  </si>
+  <si>
+    <t>The Grapes of Wrath</t>
+  </si>
+  <si>
+    <t>John Steinbeck</t>
+  </si>
+  <si>
+    <t>978-0199232765</t>
+  </si>
+  <si>
+    <t>War and Peace (Oxford World's Classics)</t>
+  </si>
+  <si>
+    <t>Tolstoy, Leo</t>
+  </si>
+  <si>
+    <t>USD $13.95</t>
+  </si>
+  <si>
+    <t>978-0143107637</t>
+  </si>
+  <si>
+    <t>Crime and Punishment: (Penguin Classics Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Dostoyevsky, Fyodor</t>
   </si>
   <si>
     <t>USD $20.00</t>
-  </si>
-  <si>
-    <t>978-1503278196</t>
-  </si>
-  <si>
-    <t>Jane Eyre</t>
-  </si>
-  <si>
-    <t>Bronte, Charlotte</t>
-  </si>
-  <si>
-    <t>978-0060850524</t>
-  </si>
-  <si>
-    <t>Brave New World</t>
-  </si>
-  <si>
-    <t>Aldous Huxley</t>
-  </si>
-  <si>
-    <t>USD $10.98</t>
-  </si>
-  <si>
-    <t>978-1451626650</t>
-  </si>
-  <si>
-    <t>Catch-22: 50th Anniversary Edition</t>
-  </si>
-  <si>
-    <t>Heller, Joseph</t>
-  </si>
-  <si>
-    <t>USD $18.00</t>
-  </si>
-  <si>
-    <t>978-1122334455</t>
-  </si>
-  <si>
-    <t>Manuel du Musicien: livre de musique (Blackytho t. 1122334455) (French Edition)</t>
-  </si>
-  <si>
-    <t>Celima, Guitho</t>
-  </si>
-  <si>
-    <t>978-0143039433</t>
-  </si>
-  <si>
-    <t>The Grapes of Wrath</t>
-  </si>
-  <si>
-    <t>John Steinbeck</t>
-  </si>
-  <si>
-    <t>978-0199232765</t>
-  </si>
-  <si>
-    <t>War and Peace (Oxford World's Classics)</t>
-  </si>
-  <si>
-    <t>Tolstoy, Leo</t>
-  </si>
-  <si>
-    <t>USD $13.95</t>
-  </si>
-  <si>
-    <t>978-0143107637</t>
-  </si>
-  <si>
-    <t>Crime and Punishment: (Penguin Classics Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Dostoyevsky, Fyodor</t>
   </si>
   <si>
     <t>978-0143035008</t>
@@ -676,22 +625,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCF5059-6C9A-4B34-85E4-9A7A529A2F9E}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6EC74E-8762-4557-BDA3-5674B83FE635}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -725,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -742,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -753,357 +702,459 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E31" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Practica1_19/archivos/Salida.xlsx
+++ b/Practica1_19/archivos/Salida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\REPOSITORIOS\IA1_Practicas_19\Practica1_19\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD4134A-AA32-435F-94FB-811720A31F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3820602E-00C7-43B0-ADBB-6ADE695DD310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4471A3E7-F773-4B7F-B115-EEB0AA71E4D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC8B00B-98A2-420D-8BD7-3689A0C698A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>ISBN</t>
   </si>
@@ -53,40 +53,73 @@
     <t>Result</t>
   </si>
   <si>
-    <t>978-1234567890</t>
-  </si>
-  <si>
-    <t>50 Bilim İnsanıyla Psikolojinin Kısa Tarihi</t>
-  </si>
-  <si>
-    <t>Jeremy Stangroom</t>
+    <t>978-0143039433</t>
+  </si>
+  <si>
+    <t>The Grapes of Wrath</t>
+  </si>
+  <si>
+    <t>John Steinbeck</t>
+  </si>
+  <si>
+    <t>USD $18.00</t>
+  </si>
+  <si>
+    <t>Encontrado</t>
+  </si>
+  <si>
+    <t>978-1122334455</t>
+  </si>
+  <si>
+    <t>Manuel du Musicien: livre de musique (Blackytho t. 1122334455) (French Edition)</t>
+  </si>
+  <si>
+    <t>Celima, Guitho</t>
   </si>
   <si>
     <t>No registrado</t>
   </si>
   <si>
-    <t>Encontrado</t>
-  </si>
-  <si>
-    <t>978-0061120084</t>
-  </si>
-  <si>
-    <t>To Kill a Mockingbird</t>
-  </si>
-  <si>
-    <t>Harper Lee</t>
-  </si>
-  <si>
-    <t>USD $16.99</t>
-  </si>
-  <si>
-    <t>978-0987654321</t>
-  </si>
-  <si>
-    <t>One Man's Henry Moore</t>
-  </si>
-  <si>
-    <t>Finn, David</t>
+    <t>978-1503278196</t>
+  </si>
+  <si>
+    <t>Jane Eyre</t>
+  </si>
+  <si>
+    <t>Bronte, Charlotte</t>
+  </si>
+  <si>
+    <t>978-0060850524</t>
+  </si>
+  <si>
+    <t>Brave New World</t>
+  </si>
+  <si>
+    <t>Aldous Huxley</t>
+  </si>
+  <si>
+    <t>USD $10.98</t>
+  </si>
+  <si>
+    <t>9780307455376</t>
+  </si>
+  <si>
+    <t>El Juego del Ángel / The Angel's Game (Spanish Edition)</t>
+  </si>
+  <si>
+    <t>Zafón, Carlos Ruiz</t>
+  </si>
+  <si>
+    <t>USD $25.93</t>
+  </si>
+  <si>
+    <t>978-1451626650</t>
+  </si>
+  <si>
+    <t>Catch-22: 50th Anniversary Edition</t>
+  </si>
+  <si>
+    <t>Heller, Joseph</t>
   </si>
   <si>
     <t>978-1503290563</t>
@@ -122,139 +155,25 @@
     <t>USD $8.98</t>
   </si>
   <si>
-    <t>978-0451524935</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>USD $9.99</t>
-  </si>
-  <si>
-    <t>978-0743273565</t>
-  </si>
-  <si>
-    <t>The Great Gatsby: The Only Authorized Edition</t>
-  </si>
-  <si>
-    <t>Fitzgerald, F. Scott</t>
-  </si>
-  <si>
-    <t>USD $17.00</t>
-  </si>
-  <si>
-    <t>978-1451626650</t>
-  </si>
-  <si>
-    <t>Catch-22: 50th Anniversary Edition</t>
-  </si>
-  <si>
-    <t>Heller, Joseph</t>
-  </si>
-  <si>
-    <t>USD $18.00</t>
-  </si>
-  <si>
-    <t>978-1122334455</t>
-  </si>
-  <si>
-    <t>Manuel du Musicien: livre de musique (Blackytho t. 1122334455) (French Edition)</t>
-  </si>
-  <si>
-    <t>Celima, Guitho</t>
-  </si>
-  <si>
-    <t>978-0143039433</t>
-  </si>
-  <si>
-    <t>The Grapes of Wrath</t>
-  </si>
-  <si>
-    <t>John Steinbeck</t>
-  </si>
-  <si>
-    <t>978-0199232765</t>
-  </si>
-  <si>
-    <t>War and Peace (Oxford World's Classics)</t>
-  </si>
-  <si>
-    <t>Tolstoy, Leo</t>
-  </si>
-  <si>
-    <t>USD $13.95</t>
-  </si>
-  <si>
-    <t>978-0143107637</t>
-  </si>
-  <si>
-    <t>Crime and Punishment: (Penguin Classics Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Dostoyevsky, Fyodor</t>
-  </si>
-  <si>
-    <t>USD $20.00</t>
-  </si>
-  <si>
-    <t>978-0143035008</t>
-  </si>
-  <si>
-    <t>ANNA KARENINA</t>
-  </si>
-  <si>
-    <t>USD $10.35</t>
-  </si>
-  <si>
-    <t>978-0374528379</t>
-  </si>
-  <si>
-    <t>The Brothers Karamazov</t>
-  </si>
-  <si>
-    <t>Dostoevsky, Fyodor</t>
-  </si>
-  <si>
-    <t>978-5566778899</t>
+    <t>979-1-876543-21-0</t>
   </si>
   <si>
     <t>Fallido</t>
   </si>
   <si>
-    <t>978-0061122414</t>
-  </si>
-  <si>
-    <t>Alchemist, The</t>
-  </si>
-  <si>
-    <t>Coelho, Paulo</t>
-  </si>
-  <si>
-    <t>USD $5.99</t>
-  </si>
-  <si>
-    <t>978-1505313109</t>
-  </si>
-  <si>
-    <t>White Fang</t>
-  </si>
-  <si>
-    <t>London, Jack</t>
-  </si>
-  <si>
-    <t>978-0142437223</t>
-  </si>
-  <si>
-    <t>The Divine Comedy: Volume 1: Inferno</t>
-  </si>
-  <si>
-    <t>Alighieri, Dante</t>
-  </si>
-  <si>
-    <t>USD $16.00</t>
+    <t>978-0547928227</t>
+  </si>
+  <si>
+    <t>The Hobbit</t>
+  </si>
+  <si>
+    <t>J. R. R. Tolkien</t>
+  </si>
+  <si>
+    <t>USD $14.99</t>
+  </si>
+  <si>
+    <t>5556667778</t>
   </si>
 </sst>
 </file>
@@ -625,22 +544,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6EC74E-8762-4557-BDA3-5674B83FE635}">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558035FD-8DC3-47DD-8A26-69132FC7CDA8}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -674,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -691,7 +610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -702,13 +621,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -719,443 +638,128 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
